--- a/Team-Data/2008-09/4-13-2008-09.xlsx
+++ b/Team-Data/2008-09/4-13-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -765,7 +832,7 @@
         <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL2" t="n">
         <v>8</v>
@@ -777,13 +844,13 @@
         <v>16</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP2" t="n">
         <v>9</v>
       </c>
       <c r="AQ2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
         <v>20</v>
@@ -792,7 +859,7 @@
         <v>21</v>
       </c>
       <c r="AT2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU2" t="n">
         <v>19</v>
@@ -810,16 +877,16 @@
         <v>8</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA2" t="n">
         <v>17</v>
       </c>
       <c r="BB2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E3" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
         <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.747</v>
+        <v>0.75</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
@@ -866,7 +933,7 @@
         <v>37.4</v>
       </c>
       <c r="J3" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K3" t="n">
         <v>0.485</v>
@@ -878,37 +945,37 @@
         <v>16.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.395</v>
+        <v>0.393</v>
       </c>
       <c r="O3" t="n">
         <v>19.5</v>
       </c>
       <c r="P3" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.768</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
       </c>
       <c r="S3" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T3" t="n">
         <v>42.2</v>
       </c>
       <c r="U3" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V3" t="n">
         <v>15.6</v>
       </c>
       <c r="W3" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
@@ -917,16 +984,16 @@
         <v>23.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="AC3" t="n">
         <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -941,7 +1008,7 @@
         <v>5</v>
       </c>
       <c r="AI3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ3" t="n">
         <v>28</v>
@@ -962,19 +1029,19 @@
         <v>12</v>
       </c>
       <c r="AP3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
         <v>21</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
@@ -986,7 +1053,7 @@
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -995,13 +1062,13 @@
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB3" t="n">
         <v>11</v>
       </c>
       <c r="BC3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" t="n">
         <v>35</v>
       </c>
       <c r="F4" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" t="n">
-        <v>0.432</v>
+        <v>0.438</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1048,43 +1115,43 @@
         <v>35.1</v>
       </c>
       <c r="J4" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="K4" t="n">
         <v>0.456</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M4" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="O4" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P4" t="n">
         <v>23.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.742</v>
+        <v>0.741</v>
       </c>
       <c r="R4" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S4" t="n">
         <v>28.8</v>
       </c>
       <c r="T4" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="U4" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V4" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W4" t="n">
         <v>7.1</v>
@@ -1093,7 +1160,7 @@
         <v>4.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z4" t="n">
         <v>21.4</v>
@@ -1102,13 +1169,13 @@
         <v>20.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1120,7 +1187,7 @@
         <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1132,10 +1199,10 @@
         <v>18</v>
       </c>
       <c r="AL4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN4" t="n">
         <v>14</v>
@@ -1144,19 +1211,19 @@
         <v>26</v>
       </c>
       <c r="AP4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
         <v>27</v>
       </c>
       <c r="AR4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT4" t="n">
         <v>26</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>27</v>
       </c>
       <c r="AU4" t="n">
         <v>10</v>
@@ -1171,7 +1238,7 @@
         <v>14</v>
       </c>
       <c r="AY4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
         <v>20</v>
@@ -1183,7 +1250,7 @@
         <v>29</v>
       </c>
       <c r="BC4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
@@ -1227,10 +1294,10 @@
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K5" t="n">
         <v>0.457</v>
@@ -1242,22 +1309,22 @@
         <v>15.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.383</v>
+        <v>0.384</v>
       </c>
       <c r="O5" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="P5" t="n">
-        <v>24.8</v>
+        <v>25.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.797</v>
+        <v>0.796</v>
       </c>
       <c r="R5" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S5" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T5" t="n">
         <v>42.1</v>
@@ -1266,10 +1333,10 @@
         <v>21.1</v>
       </c>
       <c r="V5" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
         <v>5.5</v>
@@ -1281,16 +1348,16 @@
         <v>20.9</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>102.2</v>
+        <v>102.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
@@ -1311,10 +1378,10 @@
         <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
         <v>23</v>
@@ -1323,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AP5" t="n">
         <v>14</v>
@@ -1332,7 +1399,7 @@
         <v>7</v>
       </c>
       <c r="AR5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS5" t="n">
         <v>15</v>
@@ -1341,13 +1408,13 @@
         <v>9</v>
       </c>
       <c r="AU5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV5" t="n">
         <v>20</v>
       </c>
       <c r="AW5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX5" t="n">
         <v>4</v>
@@ -1356,7 +1423,7 @@
         <v>28</v>
       </c>
       <c r="AZ5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA5" t="n">
         <v>14</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
@@ -1397,22 +1464,22 @@
         <v>80</v>
       </c>
       <c r="E6" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>0.825</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.7</v>
+        <v>78.5</v>
       </c>
       <c r="K6" t="n">
         <v>0.468</v>
@@ -1421,10 +1488,10 @@
         <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.394</v>
+        <v>0.393</v>
       </c>
       <c r="O6" t="n">
         <v>18.6</v>
@@ -1433,46 +1500,46 @@
         <v>24.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.758</v>
+        <v>0.756</v>
       </c>
       <c r="R6" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S6" t="n">
         <v>31.5</v>
       </c>
       <c r="T6" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U6" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V6" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W6" t="n">
         <v>7.2</v>
       </c>
       <c r="X6" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z6" t="n">
         <v>20.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.4</v>
+        <v>100</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1487,7 +1554,7 @@
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ6" t="n">
         <v>25</v>
@@ -1496,7 +1563,7 @@
         <v>6</v>
       </c>
       <c r="AL6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM6" t="n">
         <v>5</v>
@@ -1511,7 +1578,7 @@
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
         <v>19</v>
@@ -1526,19 +1593,19 @@
         <v>21</v>
       </c>
       <c r="AV6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW6" t="n">
         <v>17</v>
       </c>
       <c r="AX6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>7</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>6</v>
       </c>
       <c r="BA6" t="n">
         <v>20</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" t="n">
         <v>32</v>
       </c>
       <c r="G7" t="n">
-        <v>0.605</v>
+        <v>0.6</v>
       </c>
       <c r="H7" t="n">
         <v>48.3</v>
@@ -1594,7 +1661,7 @@
         <v>38.2</v>
       </c>
       <c r="J7" t="n">
-        <v>82.59999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="K7" t="n">
         <v>0.462</v>
@@ -1606,7 +1673,7 @@
         <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>0.349</v>
+        <v>0.348</v>
       </c>
       <c r="O7" t="n">
         <v>18.5</v>
@@ -1615,10 +1682,10 @@
         <v>22.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.819</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S7" t="n">
         <v>31.6</v>
@@ -1630,40 +1697,40 @@
         <v>21.7</v>
       </c>
       <c r="V7" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="W7" t="n">
         <v>7.3</v>
       </c>
       <c r="X7" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="AC7" t="n">
         <v>1.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
         <v>14</v>
@@ -1690,7 +1757,7 @@
         <v>20</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ7" t="n">
         <v>2</v>
@@ -1699,7 +1766,7 @@
         <v>13</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
         <v>5</v>
@@ -1711,19 +1778,19 @@
         <v>6</v>
       </c>
       <c r="AW7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX7" t="n">
         <v>8</v>
       </c>
       <c r="AY7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ7" t="n">
         <v>4</v>
       </c>
       <c r="BA7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB7" t="n">
         <v>9</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" t="n">
         <v>27</v>
       </c>
       <c r="G8" t="n">
-        <v>0.667</v>
+        <v>0.663</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
@@ -1779,22 +1846,22 @@
         <v>79.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.471</v>
+        <v>0.472</v>
       </c>
       <c r="L8" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M8" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="O8" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="P8" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="Q8" t="n">
         <v>0.759</v>
@@ -1809,10 +1876,10 @@
         <v>41.6</v>
       </c>
       <c r="U8" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V8" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W8" t="n">
         <v>8.699999999999999</v>
@@ -1824,19 +1891,19 @@
         <v>5.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
         <v>23.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.7</v>
+        <v>104.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1848,10 +1915,10 @@
         <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ8" t="n">
         <v>22</v>
@@ -1860,16 +1927,16 @@
         <v>5</v>
       </c>
       <c r="AL8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP8" t="n">
         <v>1</v>
@@ -1890,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" t="n">
         <v>39</v>
       </c>
       <c r="F9" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" t="n">
-        <v>0.481</v>
+        <v>0.488</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
@@ -1958,10 +2025,10 @@
         <v>36.4</v>
       </c>
       <c r="J9" t="n">
-        <v>79.90000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="K9" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L9" t="n">
         <v>4.6</v>
@@ -1970,7 +2037,7 @@
         <v>13.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O9" t="n">
         <v>16.9</v>
@@ -1979,22 +2046,22 @@
         <v>22.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R9" t="n">
         <v>11.5</v>
       </c>
       <c r="S9" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T9" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U9" t="n">
         <v>20.7</v>
       </c>
       <c r="V9" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="W9" t="n">
         <v>6</v>
@@ -2003,7 +2070,7 @@
         <v>4.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z9" t="n">
         <v>20.9</v>
@@ -2012,13 +2079,13 @@
         <v>19.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="AC9" t="n">
         <v>-0.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>17</v>
@@ -2030,7 +2097,7 @@
         <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI9" t="n">
         <v>22</v>
@@ -2048,13 +2115,13 @@
         <v>28</v>
       </c>
       <c r="AN9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO9" t="n">
         <v>28</v>
       </c>
       <c r="AP9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ9" t="n">
         <v>24</v>
@@ -2081,10 +2148,10 @@
         <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
@@ -2122,61 +2189,61 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" t="n">
         <v>29</v>
       </c>
       <c r="F10" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" t="n">
-        <v>0.358</v>
+        <v>0.363</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="J10" t="n">
         <v>86</v>
       </c>
       <c r="K10" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L10" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M10" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
       <c r="O10" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="P10" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.791</v>
+        <v>0.792</v>
       </c>
       <c r="R10" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S10" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T10" t="n">
         <v>41.9</v>
       </c>
       <c r="U10" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V10" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W10" t="n">
         <v>7.8</v>
@@ -2185,22 +2252,22 @@
         <v>6.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.5</v>
+        <v>109</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.7</v>
+        <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2221,19 +2288,19 @@
         <v>3</v>
       </c>
       <c r="AK10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN10" t="n">
         <v>11</v>
       </c>
       <c r="AO10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP10" t="n">
         <v>2</v>
@@ -2245,7 +2312,7 @@
         <v>9</v>
       </c>
       <c r="AS10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT10" t="n">
         <v>11</v>
@@ -2254,7 +2321,7 @@
         <v>15</v>
       </c>
       <c r="AV10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2263,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ10" t="n">
         <v>24</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
@@ -2304,22 +2371,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" t="n">
         <v>28</v>
       </c>
       <c r="G11" t="n">
-        <v>0.654</v>
+        <v>0.65</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J11" t="n">
         <v>79.59999999999999</v>
@@ -2328,28 +2395,28 @@
         <v>0.454</v>
       </c>
       <c r="L11" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M11" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.376</v>
+        <v>0.378</v>
       </c>
       <c r="O11" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P11" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.805</v>
+        <v>0.803</v>
       </c>
       <c r="R11" t="n">
         <v>10.6</v>
       </c>
       <c r="S11" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T11" t="n">
         <v>43</v>
@@ -2367,31 +2434,31 @@
         <v>4.3</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH11" t="n">
         <v>14</v>
@@ -2400,13 +2467,13 @@
         <v>24</v>
       </c>
       <c r="AJ11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK11" t="n">
         <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM11" t="n">
         <v>6</v>
@@ -2415,7 +2482,7 @@
         <v>8</v>
       </c>
       <c r="AO11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
@@ -2424,7 +2491,7 @@
         <v>5</v>
       </c>
       <c r="AR11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2445,13 +2512,13 @@
         <v>24</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ11" t="n">
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB11" t="n">
         <v>17</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" t="n">
         <v>35</v>
       </c>
       <c r="F12" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" t="n">
-        <v>0.432</v>
+        <v>0.438</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2522,7 +2589,7 @@
         <v>18.5</v>
       </c>
       <c r="P12" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q12" t="n">
         <v>0.806</v>
@@ -2543,7 +2610,7 @@
         <v>14.5</v>
       </c>
       <c r="W12" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X12" t="n">
         <v>5.2</v>
@@ -2552,19 +2619,19 @@
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AA12" t="n">
         <v>20.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>105</v>
+        <v>104.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.2</v>
+        <v>-1.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
         <v>18</v>
@@ -2576,7 +2643,7 @@
         <v>18</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2597,7 +2664,7 @@
         <v>10</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP12" t="n">
         <v>24</v>
@@ -2621,7 +2688,7 @@
         <v>19</v>
       </c>
       <c r="AW12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AX12" t="n">
         <v>9</v>
@@ -2633,13 +2700,13 @@
         <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB12" t="n">
         <v>5</v>
       </c>
       <c r="BC12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
@@ -2668,22 +2735,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" t="n">
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G13" t="n">
-        <v>0.235</v>
+        <v>0.238</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J13" t="n">
         <v>81.7</v>
@@ -2692,34 +2759,34 @@
         <v>0.441</v>
       </c>
       <c r="L13" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M13" t="n">
         <v>18.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O13" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P13" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.736</v>
+        <v>0.738</v>
       </c>
       <c r="R13" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S13" t="n">
         <v>29</v>
       </c>
       <c r="T13" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="U13" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V13" t="n">
         <v>14.8</v>
@@ -2734,19 +2801,19 @@
         <v>5.1</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA13" t="n">
         <v>19.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>-8.4</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2758,7 +2825,7 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI13" t="n">
         <v>25</v>
@@ -2782,10 +2849,10 @@
         <v>29</v>
       </c>
       <c r="AP13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR13" t="n">
         <v>16</v>
@@ -2797,22 +2864,22 @@
         <v>24</v>
       </c>
       <c r="AU13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV13" t="n">
         <v>23</v>
       </c>
       <c r="AW13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX13" t="n">
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA13" t="n">
         <v>27</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E14" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F14" t="n">
         <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>0.788</v>
+        <v>0.79</v>
       </c>
       <c r="H14" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="J14" t="n">
-        <v>85.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0.473</v>
@@ -2877,28 +2944,28 @@
         <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.356</v>
+        <v>0.359</v>
       </c>
       <c r="O14" t="n">
         <v>19.6</v>
       </c>
       <c r="P14" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R14" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S14" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U14" t="n">
         <v>23.1</v>
@@ -2919,16 +2986,16 @@
         <v>20.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.8</v>
+        <v>106.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2940,7 +3007,7 @@
         <v>2</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
         <v>2</v>
@@ -2952,13 +3019,13 @@
         <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM14" t="n">
         <v>15</v>
       </c>
       <c r="AN14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO14" t="n">
         <v>11</v>
@@ -2967,13 +3034,13 @@
         <v>8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2994,16 +3061,16 @@
         <v>15</v>
       </c>
       <c r="AZ14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" t="n">
         <v>23</v>
       </c>
       <c r="F15" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" t="n">
-        <v>0.284</v>
+        <v>0.288</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
@@ -3059,7 +3126,7 @@
         <v>4.9</v>
       </c>
       <c r="M15" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="N15" t="n">
         <v>0.36</v>
@@ -3068,10 +3135,10 @@
         <v>19.1</v>
       </c>
       <c r="P15" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R15" t="n">
         <v>10.4</v>
@@ -3104,13 +3171,13 @@
         <v>21.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.8</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC15" t="n">
         <v>-5.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3146,7 +3213,7 @@
         <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ15" t="n">
         <v>22</v>
@@ -3155,7 +3222,7 @@
         <v>23</v>
       </c>
       <c r="AS15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT15" t="n">
         <v>30</v>
@@ -3167,7 +3234,7 @@
         <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX15" t="n">
         <v>18</v>
@@ -3176,7 +3243,7 @@
         <v>26</v>
       </c>
       <c r="AZ15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA15" t="n">
         <v>9</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3313,7 +3380,7 @@
         <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
         <v>11</v>
@@ -3322,7 +3389,7 @@
         <v>10</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
         <v>27</v>
@@ -3331,7 +3398,7 @@
         <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR16" t="n">
         <v>26</v>
@@ -3343,7 +3410,7 @@
         <v>28</v>
       </c>
       <c r="AU16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV16" t="n">
         <v>3</v>
@@ -3361,7 +3428,7 @@
         <v>17</v>
       </c>
       <c r="BA16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB16" t="n">
         <v>18</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
@@ -3399,13 +3466,13 @@
         <v>80</v>
       </c>
       <c r="E17" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G17" t="n">
-        <v>0.425</v>
+        <v>0.413</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3417,22 +3484,22 @@
         <v>82.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L17" t="n">
         <v>6.2</v>
       </c>
       <c r="M17" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O17" t="n">
         <v>19.8</v>
       </c>
       <c r="P17" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q17" t="n">
         <v>0.78</v>
@@ -3441,13 +3508,13 @@
         <v>11.8</v>
       </c>
       <c r="S17" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="T17" t="n">
-        <v>40.8</v>
+        <v>40.6</v>
       </c>
       <c r="U17" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V17" t="n">
         <v>14.1</v>
@@ -3462,7 +3529,7 @@
         <v>4.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AA17" t="n">
         <v>22.6</v>
@@ -3471,16 +3538,16 @@
         <v>99.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.9</v>
+        <v>-1.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG17" t="n">
         <v>20</v>
@@ -3495,7 +3562,7 @@
         <v>8</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
@@ -3507,10 +3574,10 @@
         <v>18</v>
       </c>
       <c r="AO17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
@@ -3519,7 +3586,7 @@
         <v>7</v>
       </c>
       <c r="AS17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AT17" t="n">
         <v>20</v>
@@ -3528,7 +3595,7 @@
         <v>7</v>
       </c>
       <c r="AV17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
         <v>12</v>
@@ -3546,10 +3613,10 @@
         <v>5</v>
       </c>
       <c r="BB17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" t="n">
         <v>24</v>
       </c>
       <c r="F18" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" t="n">
-        <v>0.296</v>
+        <v>0.3</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
@@ -3599,7 +3666,7 @@
         <v>82.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L18" t="n">
         <v>6.6</v>
@@ -3608,16 +3675,16 @@
         <v>18.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="O18" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P18" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R18" t="n">
         <v>11.9</v>
@@ -3647,7 +3714,7 @@
         <v>21.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB18" t="n">
         <v>97.90000000000001</v>
@@ -3656,7 +3723,7 @@
         <v>-4.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3683,22 +3750,22 @@
         <v>18</v>
       </c>
       <c r="AM18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO18" t="n">
         <v>22</v>
       </c>
       <c r="AP18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS18" t="n">
         <v>18</v>
@@ -3722,10 +3789,10 @@
         <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB18" t="n">
         <v>21</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
@@ -3760,34 +3827,34 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" t="n">
         <v>47</v>
       </c>
       <c r="G19" t="n">
-        <v>0.42</v>
+        <v>0.413</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J19" t="n">
         <v>79.7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L19" t="n">
         <v>8</v>
       </c>
       <c r="M19" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="N19" t="n">
         <v>0.376</v>
@@ -3811,7 +3878,7 @@
         <v>39.7</v>
       </c>
       <c r="U19" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V19" t="n">
         <v>13</v>
@@ -3820,7 +3887,7 @@
         <v>6.8</v>
       </c>
       <c r="X19" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y19" t="n">
         <v>4.8</v>
@@ -3829,28 +3896,28 @@
         <v>22.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.1</v>
+        <v>-2.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
         <v>26</v>
@@ -3859,10 +3926,10 @@
         <v>19</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM19" t="n">
         <v>3</v>
@@ -3880,13 +3947,13 @@
         <v>12</v>
       </c>
       <c r="AR19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS19" t="n">
         <v>20</v>
       </c>
       <c r="AT19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU19" t="n">
         <v>26</v>
@@ -3910,7 +3977,7 @@
         <v>18</v>
       </c>
       <c r="BB19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BC19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" t="n">
         <v>49</v>
       </c>
       <c r="F20" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" t="n">
-        <v>0.605</v>
+        <v>0.613</v>
       </c>
       <c r="H20" t="n">
         <v>48.1</v>
       </c>
       <c r="I20" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J20" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
         <v>6.8</v>
@@ -3972,55 +4039,55 @@
         <v>18.7</v>
       </c>
       <c r="N20" t="n">
-        <v>0.364</v>
+        <v>0.365</v>
       </c>
       <c r="O20" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P20" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R20" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S20" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T20" t="n">
         <v>39.8</v>
       </c>
       <c r="U20" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="V20" t="n">
         <v>12.6</v>
       </c>
       <c r="W20" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X20" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>95.8</v>
+        <v>96.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE20" t="n">
         <v>9</v>
@@ -4041,22 +4108,22 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>13</v>
       </c>
       <c r="AM20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN20" t="n">
         <v>17</v>
       </c>
       <c r="AO20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ20" t="n">
         <v>3</v>
@@ -4071,13 +4138,13 @@
         <v>25</v>
       </c>
       <c r="AU20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AX20" t="n">
         <v>26</v>
@@ -4092,10 +4159,10 @@
         <v>19</v>
       </c>
       <c r="BB20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC20" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
@@ -4205,7 +4272,7 @@
         <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF21" t="n">
         <v>23</v>
@@ -4214,7 +4281,7 @@
         <v>23</v>
       </c>
       <c r="AH21" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4235,7 +4302,7 @@
         <v>19</v>
       </c>
       <c r="AO21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP21" t="n">
         <v>22</v>
@@ -4268,7 +4335,7 @@
         <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4277,7 +4344,7 @@
         <v>4</v>
       </c>
       <c r="BC21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" t="n">
         <v>22</v>
       </c>
       <c r="F22" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G22" t="n">
-        <v>0.272</v>
+        <v>0.275</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J22" t="n">
         <v>81.8</v>
       </c>
       <c r="K22" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L22" t="n">
         <v>4</v>
@@ -4336,13 +4403,13 @@
         <v>11.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.346</v>
+        <v>0.348</v>
       </c>
       <c r="O22" t="n">
         <v>19.8</v>
       </c>
       <c r="P22" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q22" t="n">
         <v>0.785</v>
@@ -4372,19 +4439,19 @@
         <v>5</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA22" t="n">
         <v>20.2</v>
       </c>
       <c r="AB22" t="n">
-        <v>96.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>-6.7</v>
+        <v>-6.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>27</v>
@@ -4399,13 +4466,13 @@
         <v>14</v>
       </c>
       <c r="AI22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL22" t="n">
         <v>30</v>
@@ -4417,10 +4484,10 @@
         <v>28</v>
       </c>
       <c r="AO22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ22" t="n">
         <v>9</v>
@@ -4429,7 +4496,7 @@
         <v>4</v>
       </c>
       <c r="AS22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT22" t="n">
         <v>6</v>
@@ -4441,7 +4508,7 @@
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX22" t="n">
         <v>22</v>
@@ -4450,7 +4517,7 @@
         <v>17</v>
       </c>
       <c r="AZ22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA22" t="n">
         <v>21</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
@@ -4488,37 +4555,37 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" t="n">
         <v>58</v>
       </c>
       <c r="F23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G23" t="n">
-        <v>0.716</v>
+        <v>0.725</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J23" t="n">
-        <v>78.2</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L23" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="M23" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.38</v>
+        <v>0.382</v>
       </c>
       <c r="O23" t="n">
         <v>19.7</v>
@@ -4530,16 +4597,16 @@
         <v>0.716</v>
       </c>
       <c r="R23" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S23" t="n">
         <v>33.3</v>
       </c>
       <c r="T23" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U23" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="V23" t="n">
         <v>14</v>
@@ -4548,7 +4615,7 @@
         <v>7</v>
       </c>
       <c r="X23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y23" t="n">
         <v>3.7</v>
@@ -4557,16 +4624,16 @@
         <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>101.1</v>
+        <v>101.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
         <v>27</v>
@@ -4587,7 +4654,7 @@
         <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
         <v>2</v>
@@ -4623,16 +4690,16 @@
         <v>13</v>
       </c>
       <c r="AW23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY23" t="n">
         <v>2</v>
       </c>
       <c r="AZ23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA23" t="n">
         <v>6</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>0.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4769,7 +4836,7 @@
         <v>18</v>
       </c>
       <c r="AK24" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4781,28 +4848,28 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP24" t="n">
         <v>6</v>
       </c>
       <c r="AQ24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR24" t="n">
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT24" t="n">
         <v>17</v>
       </c>
       <c r="AU24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW24" t="n">
         <v>5</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="n">
         <v>36</v>
       </c>
       <c r="G25" t="n">
-        <v>0.556</v>
+        <v>0.55</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4873,34 +4940,34 @@
         <v>81.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.505</v>
+        <v>0.504</v>
       </c>
       <c r="L25" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M25" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="O25" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P25" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="Q25" t="n">
         <v>0.745</v>
       </c>
       <c r="R25" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S25" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T25" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U25" t="n">
         <v>23.2</v>
@@ -4909,7 +4976,7 @@
         <v>15.8</v>
       </c>
       <c r="W25" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X25" t="n">
         <v>5.1</v>
@@ -4921,16 +4988,16 @@
         <v>20.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>109.3</v>
+        <v>109.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4942,7 +5009,7 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
         <v>1</v>
@@ -4954,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM25" t="n">
         <v>19</v>
@@ -4969,16 +5036,16 @@
         <v>5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS25" t="n">
         <v>10</v>
       </c>
       <c r="AT25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU25" t="n">
         <v>2</v>
@@ -4996,7 +5063,7 @@
         <v>10</v>
       </c>
       <c r="AZ25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA25" t="n">
         <v>4</v>
@@ -5005,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="BC25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
@@ -5037,58 +5104,58 @@
         <v>80</v>
       </c>
       <c r="E26" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.663</v>
+        <v>0.65</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="J26" t="n">
         <v>79.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.466</v>
+        <v>0.463</v>
       </c>
       <c r="L26" t="n">
         <v>7.2</v>
       </c>
       <c r="M26" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="N26" t="n">
         <v>0.38</v>
       </c>
       <c r="O26" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="P26" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.767</v>
+        <v>0.765</v>
       </c>
       <c r="R26" t="n">
         <v>13</v>
       </c>
       <c r="S26" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="T26" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U26" t="n">
         <v>20.2</v>
       </c>
       <c r="V26" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W26" t="n">
         <v>6.7</v>
@@ -5097,28 +5164,28 @@
         <v>4.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA26" t="n">
         <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.7</v>
+        <v>99.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
         <v>6</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG26" t="n">
         <v>6</v>
@@ -5127,13 +5194,13 @@
         <v>11</v>
       </c>
       <c r="AI26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
         <v>23</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL26" t="n">
         <v>9</v>
@@ -5145,22 +5212,22 @@
         <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP26" t="n">
         <v>16</v>
       </c>
       <c r="AQ26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AU26" t="n">
         <v>22</v>
@@ -5169,7 +5236,7 @@
         <v>8</v>
       </c>
       <c r="AW26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX26" t="n">
         <v>13</v>
@@ -5178,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA26" t="n">
         <v>11</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" t="n">
-        <v>0.198</v>
+        <v>0.2</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
@@ -5243,22 +5310,22 @@
         <v>7.1</v>
       </c>
       <c r="M27" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N27" t="n">
         <v>0.367</v>
       </c>
       <c r="O27" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="P27" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.798</v>
+        <v>0.8</v>
       </c>
       <c r="R27" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S27" t="n">
         <v>28.8</v>
@@ -5267,7 +5334,7 @@
         <v>39.1</v>
       </c>
       <c r="U27" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V27" t="n">
         <v>15.4</v>
@@ -5285,16 +5352,16 @@
         <v>23.3</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>-9</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5309,7 +5376,7 @@
         <v>4</v>
       </c>
       <c r="AI27" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
         <v>11</v>
@@ -5345,13 +5412,13 @@
         <v>29</v>
       </c>
       <c r="AU27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV27" t="n">
         <v>26</v>
       </c>
       <c r="AW27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX27" t="n">
         <v>25</v>
@@ -5360,10 +5427,10 @@
         <v>21</v>
       </c>
       <c r="AZ27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB27" t="n">
         <v>12</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" t="n">
         <v>28</v>
       </c>
       <c r="G28" t="n">
-        <v>0.654</v>
+        <v>0.65</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
@@ -5419,13 +5486,13 @@
         <v>79.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.465</v>
+        <v>0.466</v>
       </c>
       <c r="L28" t="n">
         <v>7.6</v>
       </c>
       <c r="M28" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="N28" t="n">
         <v>0.387</v>
@@ -5434,19 +5501,19 @@
         <v>15.2</v>
       </c>
       <c r="P28" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.761</v>
+        <v>0.764</v>
       </c>
       <c r="R28" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T28" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="U28" t="n">
         <v>21.2</v>
@@ -5458,7 +5525,7 @@
         <v>5.8</v>
       </c>
       <c r="X28" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y28" t="n">
         <v>4.3</v>
@@ -5470,37 +5537,37 @@
         <v>18.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
       </c>
       <c r="AF28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI28" t="n">
         <v>13</v>
       </c>
       <c r="AJ28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM28" t="n">
         <v>9</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F29" t="n">
         <v>49</v>
       </c>
       <c r="G29" t="n">
-        <v>0.395</v>
+        <v>0.388</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J29" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L29" t="n">
         <v>5.9</v>
@@ -5610,40 +5677,40 @@
         <v>15.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.371</v>
+        <v>0.373</v>
       </c>
       <c r="O29" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P29" t="n">
         <v>22.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.824</v>
+        <v>0.826</v>
       </c>
       <c r="R29" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="S29" t="n">
         <v>30.5</v>
       </c>
       <c r="T29" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="U29" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V29" t="n">
         <v>13.4</v>
       </c>
       <c r="W29" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X29" t="n">
         <v>4.8</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z29" t="n">
         <v>19.4</v>
@@ -5658,7 +5725,7 @@
         <v>-3</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>22</v>
@@ -5676,10 +5743,10 @@
         <v>11</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL29" t="n">
         <v>24</v>
@@ -5688,10 +5755,10 @@
         <v>24</v>
       </c>
       <c r="AN29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP29" t="n">
         <v>25</v>
@@ -5718,7 +5785,7 @@
         <v>27</v>
       </c>
       <c r="AX29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY29" t="n">
         <v>12</v>
@@ -5733,7 +5800,7 @@
         <v>16</v>
       </c>
       <c r="BC29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
@@ -5762,61 +5829,61 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" t="n">
         <v>33</v>
       </c>
       <c r="G30" t="n">
-        <v>0.593</v>
+        <v>0.588</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J30" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.474</v>
+        <v>0.475</v>
       </c>
       <c r="L30" t="n">
         <v>4.8</v>
       </c>
       <c r="M30" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="N30" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O30" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="P30" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.772</v>
+        <v>0.771</v>
       </c>
       <c r="R30" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S30" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T30" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U30" t="n">
         <v>24.7</v>
       </c>
       <c r="V30" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W30" t="n">
         <v>8.699999999999999</v>
@@ -5831,16 +5898,16 @@
         <v>22.3</v>
       </c>
       <c r="AA30" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="AB30" t="n">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>11</v>
@@ -5852,7 +5919,7 @@
         <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31" t="n">
         <v>19</v>
       </c>
       <c r="F31" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G31" t="n">
-        <v>0.235</v>
+        <v>0.238</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
@@ -5974,7 +6041,7 @@
         <v>14.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.329</v>
+        <v>0.331</v>
       </c>
       <c r="O31" t="n">
         <v>18.1</v>
@@ -5992,28 +6059,28 @@
         <v>28.4</v>
       </c>
       <c r="T31" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="U31" t="n">
         <v>20.1</v>
       </c>
       <c r="V31" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="W31" t="n">
         <v>7.5</v>
       </c>
       <c r="X31" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y31" t="n">
         <v>5.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB31" t="n">
         <v>95.90000000000001</v>
@@ -6022,7 +6089,7 @@
         <v>-7.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6034,19 +6101,19 @@
         <v>28</v>
       </c>
       <c r="AH31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI31" t="n">
         <v>18</v>
       </c>
       <c r="AJ31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM31" t="n">
         <v>25</v>
@@ -6055,31 +6122,31 @@
         <v>29</v>
       </c>
       <c r="AO31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP31" t="n">
         <v>20</v>
       </c>
       <c r="AQ31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR31" t="n">
         <v>8</v>
       </c>
       <c r="AS31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AV31" t="n">
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX31" t="n">
         <v>23</v>
@@ -6088,13 +6155,13 @@
         <v>22</v>
       </c>
       <c r="AZ31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA31" t="n">
+        <v>25</v>
+      </c>
+      <c r="BB31" t="n">
         <v>26</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>25</v>
       </c>
       <c r="BC31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-13-2008-09</t>
+          <t>2009-04-13</t>
         </is>
       </c>
     </row>
